--- a/DCarroll Assignment 1.xlsx
+++ b/DCarroll Assignment 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00201097\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00201097\Desktop\Computer-Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment generation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="102">
   <si>
     <t>z = -1</t>
   </si>
@@ -314,6 +314,30 @@
   </si>
   <si>
     <t>"(14.2, 4.5, 6.1)"</t>
+  </si>
+  <si>
+    <t>"(-275.4, -187.3, -93.6)"</t>
+  </si>
+  <si>
+    <t>"(45.2, 163.2, -197.8)"</t>
+  </si>
+  <si>
+    <t>"(110.3, 39.3, 163.4)"</t>
+  </si>
+  <si>
+    <t>"(-210.4, -311.2, 267.6)"</t>
+  </si>
+  <si>
+    <t>"(-99.3, -105.4, 281.4)"</t>
+  </si>
+  <si>
+    <t>"(221.3, 245.1, 177.2)"</t>
+  </si>
+  <si>
+    <t>"(286.4, 121.3, 538.4)"</t>
+  </si>
+  <si>
+    <t>"(-34.3, -229.2, 642.6)"</t>
   </si>
 </sst>
 </file>
@@ -642,22 +666,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,32 +714,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,13 +849,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:colOff>446943</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685547</xdr:colOff>
+      <xdr:colOff>560989</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
@@ -857,7 +881,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2395905" y="8191500"/>
+          <a:off x="2271347" y="8191500"/>
           <a:ext cx="2619854" cy="703385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1079,6 +1103,116 @@
         <a:xfrm>
           <a:off x="7964368" y="9217269"/>
           <a:ext cx="2036885" cy="1445295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1254920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1018442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1846385" y="10997712"/>
+          <a:ext cx="3738747" cy="1003788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>417639</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762004</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1519353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2242043" y="12741519"/>
+          <a:ext cx="2850173" cy="1519353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1402,24 +1536,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1583,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1608,10 +1742,10 @@
     </row>
     <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1622,10 +1756,10 @@
     </row>
     <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -1645,10 +1779,10 @@
     </row>
     <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
@@ -1657,10 +1791,10 @@
     </row>
     <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -1680,10 +1814,10 @@
     </row>
     <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -1693,8 +1827,8 @@
     </row>
     <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -1714,28 +1848,28 @@
     </row>
     <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
@@ -1755,10 +1889,10 @@
     </row>
     <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
       <c r="H14" s="15"/>
@@ -1770,8 +1904,8 @@
     </row>
     <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
@@ -1795,10 +1929,10 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -1810,8 +1944,8 @@
     </row>
     <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -1832,18 +1966,18 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="36" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="34" t="s">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
@@ -1851,12 +1985,12 @@
     </row>
     <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -1874,33 +2008,33 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="35"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="6"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="13"/>
@@ -1913,10 +2047,10 @@
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
@@ -1927,8 +2061,8 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
@@ -1946,15 +2080,15 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -1965,11 +2099,11 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -1987,44 +2121,44 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="36" t="s">
+      <c r="E32" s="35"/>
+      <c r="F32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="32" t="s">
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -2036,47 +2170,32 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="35"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -2091,12 +2210,27 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2107,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L50" sqref="J50:L57"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2119,26 +2253,26 @@
     <col min="16" max="16" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="O2" t="s">
@@ -2150,36 +2284,46 @@
       <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42" t="s">
+      <c r="T2" s="28"/>
+      <c r="U2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44" t="s">
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="31">
         <v>0.94218150000000001</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44" t="s">
+      <c r="D3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="31">
         <v>15</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
@@ -2194,38 +2338,50 @@
       <c r="Q3" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="44" t="s">
+      <c r="U3" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="44" t="s">
+      <c r="V3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="44" t="s">
+      <c r="W3" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
+      <c r="Y3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB3" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="31">
         <v>-0.13378370000000001</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44" t="s">
+      <c r="D4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="44">
-        <v>0</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
@@ -2240,38 +2396,50 @@
       <c r="Q4" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="V4" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44" t="s">
+      <c r="Y4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="31">
         <v>0.30723919999999999</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="44">
-        <v>0</v>
-      </c>
-      <c r="J5" s="44" t="s">
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N5" t="s">
@@ -2286,38 +2454,50 @@
       <c r="Q5" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="44" t="s">
+      <c r="U5" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="V5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="44" t="s">
+      <c r="W5" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44" t="s">
+      <c r="Y5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="44">
-        <v>0</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44" t="s">
+      <c r="C6" s="31">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="44">
-        <v>0</v>
-      </c>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N6" t="s">
@@ -2332,38 +2512,50 @@
       <c r="Q6" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="43" t="s">
+      <c r="T6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="U6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="V6" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="W6" s="44" t="s">
+      <c r="W6" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
+      <c r="Y6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="31">
         <v>0.30723919999999999</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44" t="s">
+      <c r="D7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="44">
-        <v>0</v>
-      </c>
-      <c r="J7" s="44" t="s">
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N7" t="s">
@@ -2378,38 +2570,50 @@
       <c r="Q7" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="V7" s="44" t="s">
+      <c r="V7" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="W7" s="44" t="s">
+      <c r="W7" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44" t="s">
+      <c r="Y7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="31">
         <v>0.71090759999999997</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44" t="s">
+      <c r="D8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="31">
         <v>3</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N8" t="s">
@@ -2424,38 +2628,50 @@
       <c r="Q8" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="43" t="s">
+      <c r="T8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44" t="s">
+      <c r="Y8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB8" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="31">
         <v>-0.63262510000000005</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44" t="s">
+      <c r="D9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="44">
-        <v>0</v>
-      </c>
-      <c r="J9" s="44" t="s">
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N9" t="s">
@@ -2470,38 +2686,50 @@
       <c r="Q9" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44" t="s">
+      <c r="Y9" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z9" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="44">
-        <v>0</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44" t="s">
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="44">
-        <v>0</v>
-      </c>
-      <c r="J10" s="44" t="s">
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N10" t="s">
@@ -2516,396 +2744,408 @@
       <c r="Q10" t="s">
         <v>61</v>
       </c>
-      <c r="T10" s="43" t="s">
+      <c r="T10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="44" t="s">
+      <c r="V10" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="W10" s="44" t="s">
+      <c r="W10" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44" t="s">
+      <c r="Y10" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="31">
         <v>-0.13378370000000001</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44" t="s">
+      <c r="D11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="44">
-        <v>0</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44" t="s">
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="31">
         <v>0.69044360000000005</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44" t="s">
+      <c r="D12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="44">
-        <v>0</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44" t="s">
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="31">
         <v>0.71090759999999997</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44" t="s">
+      <c r="D13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="31">
         <v>5</v>
       </c>
-      <c r="J13" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44" t="s">
+      <c r="J13" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="44">
-        <v>0</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44" t="s">
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="44">
-        <v>0</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42" t="s">
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="42" t="s">
+      <c r="R14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="42" t="s">
+      <c r="S14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="U14" s="41"/>
-      <c r="V14" s="42" t="s">
+      <c r="U14" s="28"/>
+      <c r="V14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="W14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="X14" s="42" t="s">
+      <c r="X14" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44" t="s">
+    <row r="15" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="44">
-        <v>0</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44" t="s">
+      <c r="C15" s="31">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="44">
-        <v>0</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44" t="s">
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="31">
         <v>1</v>
       </c>
-      <c r="S15" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U15" s="43" t="s">
+      <c r="S15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="44" t="s">
+      <c r="V15" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="W15" s="44" t="s">
+      <c r="W15" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="X15" s="44" t="s">
+      <c r="X15" s="31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44" t="s">
+    <row r="16" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="44">
-        <v>0</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44" t="s">
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="44">
-        <v>0</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44" t="s">
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="44">
-        <v>0</v>
-      </c>
-      <c r="S16" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U16" s="43" t="s">
+      <c r="R16" s="31">
+        <v>0</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="44" t="s">
+      <c r="V16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="W16" s="44" t="s">
+      <c r="W16" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="X16" s="44" t="s">
+      <c r="X16" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="44">
-        <v>0</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44" t="s">
+      <c r="C17" s="31">
+        <v>0</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="44">
-        <v>0</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44" t="s">
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="R17" s="44">
-        <v>0</v>
-      </c>
-      <c r="S17" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U17" s="43" t="s">
+      <c r="R17" s="31">
+        <v>0</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="44" t="s">
+      <c r="V17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="44" t="s">
+      <c r="W17" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X17" s="44" t="s">
+      <c r="X17" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="31">
         <v>1</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44" t="s">
+      <c r="D18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="31">
         <v>1</v>
       </c>
-      <c r="J18" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="44" t="s">
+      <c r="J18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="31">
         <v>2</v>
       </c>
-      <c r="S18" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U18" s="43" t="s">
+      <c r="S18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="44" t="s">
+      <c r="V18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="W18" s="44" t="s">
+      <c r="W18" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="X18" s="44" t="s">
+      <c r="X18" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44" t="s">
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="44">
-        <v>0</v>
-      </c>
-      <c r="S19" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" s="43" t="s">
+      <c r="R19" s="31">
+        <v>0</v>
+      </c>
+      <c r="S19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="44" t="s">
+      <c r="V19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="W19" s="44" t="s">
+      <c r="W19" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="X19" s="44" t="s">
+      <c r="X19" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P20" s="43"/>
-      <c r="Q20" s="44" t="s">
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="31">
         <v>1</v>
       </c>
-      <c r="S20" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" s="43" t="s">
+      <c r="S20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="44" t="s">
+      <c r="V20" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="44" t="s">
+      <c r="W20" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="X20" s="44" t="s">
+      <c r="X20" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44" t="s">
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="44">
-        <v>0</v>
-      </c>
-      <c r="S21" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21" s="43" t="s">
+      <c r="R21" s="31">
+        <v>0</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V21" s="44" t="s">
+      <c r="V21" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="W21" s="44" t="s">
+      <c r="W21" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="X21" s="44" t="s">
+      <c r="X21" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P22" s="43"/>
-      <c r="Q22" s="44" t="s">
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="31">
         <v>4</v>
       </c>
-      <c r="S22" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22" s="43" t="s">
+      <c r="S22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V22" s="44" t="s">
+      <c r="V22" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="W22" s="44" t="s">
+      <c r="W22" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="X22" s="44" t="s">
+      <c r="X22" s="31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2916,28 +3156,28 @@
       <c r="K23" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="44" t="s">
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="44">
-        <v>0</v>
-      </c>
-      <c r="S23" s="44" t="s">
+      <c r="R23" s="31">
+        <v>0</v>
+      </c>
+      <c r="S23" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>14.132720000000001</v>
+        <v>-11.583320000000001</v>
       </c>
       <c r="C24">
         <f>B28</f>
-        <v>0.92171749999999997</v>
+        <v>-12.399050000000001</v>
       </c>
       <c r="D24">
         <f>B32</f>
-        <v>-0.66891860000000003</v>
+        <v>1.0441309999999999</v>
       </c>
       <c r="E24">
         <f>B36</f>
@@ -2949,38 +3189,38 @@
       <c r="K24" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="44" t="s">
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="R24" s="44">
-        <v>0</v>
-      </c>
-      <c r="S24" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24" s="41"/>
-      <c r="V24" s="42" t="s">
+      <c r="R24" s="31">
+        <v>0</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="W24" s="42" t="s">
+      <c r="W24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="X24" s="42" t="s">
+      <c r="X24" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>-2.0067560000000002</v>
+        <v>-5.5555969999999997</v>
       </c>
       <c r="C25">
         <f t="shared" ref="C25:C27" si="0">B29</f>
-        <v>2.1327229999999999</v>
+        <v>5.3656370000000004</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:D27" si="1">B33</f>
-        <v>3.4522179999999998</v>
+        <v>2.0845319999999998</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:E27" si="2">B37</f>
@@ -2992,40 +3232,40 @@
       <c r="K25" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="44" t="s">
+      <c r="P25" s="30"/>
+      <c r="Q25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R25" s="31">
         <v>1</v>
       </c>
-      <c r="S25" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U25" s="43" t="s">
+      <c r="S25" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V25" s="44" t="s">
+      <c r="V25" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="W25" s="44" t="s">
+      <c r="W25" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="X25" s="44" t="s">
+      <c r="X25" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>4.6085880000000001</v>
+        <v>-12.7182</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>-1.897875</v>
+        <v>7.4189530000000001</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>3.554538</v>
+        <v>-52.992519999999999</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
@@ -3037,40 +3277,40 @@
       <c r="K26" t="s">
         <v>67</v>
       </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44" t="s">
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="31">
         <v>-4</v>
       </c>
-      <c r="S26" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U26" s="43" t="s">
+      <c r="S26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V26" s="44" t="s">
+      <c r="V26" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="W26" s="44" t="s">
+      <c r="W26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="X26" s="44" t="s">
+      <c r="X26" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
@@ -3082,32 +3322,32 @@
       <c r="K27" t="s">
         <v>69</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="44" t="s">
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="R27" s="44">
-        <v>0</v>
-      </c>
-      <c r="S27" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U27" s="43" t="s">
+      <c r="R27" s="31">
+        <v>0</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V27" s="44" t="s">
+      <c r="V27" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="W27" s="44" t="s">
+      <c r="W27" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="X27" s="44" t="s">
+      <c r="X27" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>0.92171749999999997</v>
+        <v>-12.399050000000001</v>
       </c>
       <c r="J28" t="s">
         <v>70</v>
@@ -3115,32 +3355,32 @@
       <c r="K28" t="s">
         <v>71</v>
       </c>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="44" t="s">
+      <c r="P28" s="30"/>
+      <c r="Q28" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="44">
-        <v>0</v>
-      </c>
-      <c r="S28" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U28" s="43" t="s">
+      <c r="R28" s="31">
+        <v>0</v>
+      </c>
+      <c r="S28" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V28" s="44" t="s">
+      <c r="V28" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="W28" s="44" t="s">
+      <c r="W28" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="44" t="s">
+      <c r="X28" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>2.1327229999999999</v>
+        <v>5.3656370000000004</v>
       </c>
       <c r="J29" t="s">
         <v>72</v>
@@ -3148,32 +3388,32 @@
       <c r="K29" t="s">
         <v>73</v>
       </c>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="44" t="s">
+      <c r="P29" s="30"/>
+      <c r="Q29" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="44">
-        <v>0</v>
-      </c>
-      <c r="S29" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U29" s="43" t="s">
+      <c r="R29" s="31">
+        <v>0</v>
+      </c>
+      <c r="S29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V29" s="44" t="s">
+      <c r="V29" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="W29" s="44" t="s">
+      <c r="W29" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="X29" s="44" t="s">
+      <c r="X29" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>-1.897875</v>
+        <v>7.4189530000000001</v>
       </c>
       <c r="J30" t="s">
         <v>74</v>
@@ -3181,49 +3421,49 @@
       <c r="K30" t="s">
         <v>75</v>
       </c>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="44" t="s">
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="44">
+      <c r="R30" s="31">
         <v>1</v>
       </c>
-      <c r="S30" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U30" s="43" t="s">
+      <c r="S30" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V30" s="44" t="s">
+      <c r="V30" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="W30" s="44" t="s">
+      <c r="W30" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="X30" s="44" t="s">
+      <c r="X30" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="U31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V31" s="44" t="s">
+      <c r="V31" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="W31" s="44" t="s">
+      <c r="W31" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="X31" s="44" t="s">
+      <c r="X31" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>-0.66891860000000003</v>
+        <v>1.0441309999999999</v>
       </c>
       <c r="J32" t="s">
         <v>59</v>
@@ -3231,32 +3471,32 @@
       <c r="K32" t="s">
         <v>76</v>
       </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="42" t="s">
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="R32" s="42" t="s">
+      <c r="R32" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="S32" s="42" t="s">
+      <c r="S32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="U32" s="43" t="s">
+      <c r="U32" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V32" s="44" t="s">
+      <c r="V32" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="W32" s="44" t="s">
+      <c r="W32" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="X32" s="44" t="s">
+      <c r="X32" s="31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>3.4522179999999998</v>
+        <v>2.0845319999999998</v>
       </c>
       <c r="J33" t="s">
         <v>62</v>
@@ -3264,22 +3504,22 @@
       <c r="K33" t="s">
         <v>77</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="P33" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="44" t="s">
+      <c r="Q33" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="R33" s="44" t="s">
+      <c r="R33" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="44" t="s">
+      <c r="S33" s="31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>3.554538</v>
+        <v>-52.992519999999999</v>
       </c>
       <c r="J34" t="s">
         <v>64</v>
@@ -3287,20 +3527,30 @@
       <c r="K34" t="s">
         <v>78</v>
       </c>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="44" t="s">
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="31">
         <v>14.132720000000001</v>
       </c>
-      <c r="S34" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U34" s="28"/>
+      <c r="V34" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>66</v>
@@ -3308,18 +3558,28 @@
       <c r="K35" t="s">
         <v>79</v>
       </c>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="44" t="s">
+      <c r="P35" s="30"/>
+      <c r="Q35" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="R35" s="44">
+      <c r="R35" s="31">
         <v>-2.0067560000000002</v>
       </c>
-      <c r="S35" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U35" s="30"/>
+      <c r="V35" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W35" s="31">
+        <v>-11.583320000000001</v>
+      </c>
+      <c r="X35" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0</v>
       </c>
@@ -3329,18 +3589,28 @@
       <c r="K36" t="s">
         <v>80</v>
       </c>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="44" t="s">
+      <c r="P36" s="30"/>
+      <c r="Q36" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="R36" s="44">
+      <c r="R36" s="31">
         <v>4.6085880000000001</v>
       </c>
-      <c r="S36" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U36" s="30"/>
+      <c r="V36" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" s="31">
+        <v>-5.5555969999999997</v>
+      </c>
+      <c r="X36" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0</v>
       </c>
@@ -3350,18 +3620,28 @@
       <c r="K37" t="s">
         <v>81</v>
       </c>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="44" t="s">
+      <c r="P37" s="30"/>
+      <c r="Q37" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R37" s="44">
+      <c r="R37" s="31">
         <v>2</v>
       </c>
-      <c r="S37" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U37" s="30"/>
+      <c r="V37" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="W37" s="31">
+        <v>-12.7182</v>
+      </c>
+      <c r="X37" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0</v>
       </c>
@@ -3371,18 +3651,28 @@
       <c r="K38" t="s">
         <v>82</v>
       </c>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="44" t="s">
+      <c r="P38" s="30"/>
+      <c r="Q38" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="R38" s="44">
+      <c r="R38" s="31">
         <v>0.92171749999999997</v>
       </c>
-      <c r="S38" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" s="30"/>
+      <c r="V38" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="W38" s="31">
+        <v>0</v>
+      </c>
+      <c r="X38" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1</v>
       </c>
@@ -3392,194 +3682,314 @@
       <c r="K39" t="s">
         <v>83</v>
       </c>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="44" t="s">
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="R39" s="44">
+      <c r="R39" s="31">
         <v>2.1327229999999999</v>
       </c>
-      <c r="S39" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P40" s="43"/>
-      <c r="Q40" s="44" t="s">
+      <c r="S39" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U39" s="30"/>
+      <c r="V39" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W39" s="31">
+        <v>-12.399050000000001</v>
+      </c>
+      <c r="X39" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="30"/>
+      <c r="Q40" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="R40" s="44">
+      <c r="R40" s="31">
         <v>-1.897875</v>
       </c>
-      <c r="S40" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" s="30"/>
+      <c r="V40" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="W40" s="31">
+        <v>5.3656370000000004</v>
+      </c>
+      <c r="X40" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
         <v>59</v>
       </c>
       <c r="K41" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="44" t="s">
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="44">
+      <c r="R41" s="31">
         <v>4</v>
       </c>
-      <c r="S41" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41" s="30"/>
+      <c r="V41" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W41" s="31">
+        <v>7.4189530000000001</v>
+      </c>
+      <c r="X41" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>62</v>
       </c>
       <c r="K42" t="s">
         <v>85</v>
       </c>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="44" t="s">
+      <c r="P42" s="30"/>
+      <c r="Q42" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="44">
+      <c r="R42" s="31">
         <v>-0.66891860000000003</v>
       </c>
-      <c r="S42" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U42" s="30"/>
+      <c r="V42" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="W42" s="31">
+        <v>0</v>
+      </c>
+      <c r="X42" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
         <v>64</v>
       </c>
       <c r="K43" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="44" t="s">
+      <c r="P43" s="30"/>
+      <c r="Q43" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="R43" s="44">
+      <c r="R43" s="31">
         <v>3.4522179999999998</v>
       </c>
-      <c r="S43" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S43" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U43" s="30"/>
+      <c r="V43" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="W43" s="31">
+        <v>1.0441309999999999</v>
+      </c>
+      <c r="X43" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
         <v>66</v>
       </c>
       <c r="K44" t="s">
         <v>87</v>
       </c>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="44" t="s">
+      <c r="P44" s="30"/>
+      <c r="Q44" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R44" s="44">
+      <c r="R44" s="31">
         <v>3.554538</v>
       </c>
-      <c r="S44" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U44" s="30"/>
+      <c r="V44" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="W44" s="31">
+        <v>2.0845319999999998</v>
+      </c>
+      <c r="X44" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
         <v>68</v>
       </c>
       <c r="K45" t="s">
         <v>88</v>
       </c>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="44" t="s">
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="R45" s="44">
+      <c r="R45" s="31">
         <v>-4</v>
       </c>
-      <c r="S45" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U45" s="30"/>
+      <c r="V45" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="W45" s="31">
+        <v>-52.992519999999999</v>
+      </c>
+      <c r="X45" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
         <v>70</v>
       </c>
       <c r="K46" t="s">
         <v>89</v>
       </c>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="44" t="s">
+      <c r="P46" s="30"/>
+      <c r="Q46" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="R46" s="44">
-        <v>0</v>
-      </c>
-      <c r="S46" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="31">
+        <v>0</v>
+      </c>
+      <c r="S46" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U46" s="30"/>
+      <c r="V46" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="W46" s="31">
+        <v>0</v>
+      </c>
+      <c r="X46" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
         <v>72</v>
       </c>
       <c r="K47" t="s">
         <v>90</v>
       </c>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="44" t="s">
+      <c r="P47" s="30"/>
+      <c r="Q47" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="R47" s="44">
-        <v>0</v>
-      </c>
-      <c r="S47" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="31">
+        <v>0</v>
+      </c>
+      <c r="S47" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U47" s="30"/>
+      <c r="V47" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" s="31">
+        <v>0</v>
+      </c>
+      <c r="X47" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>74</v>
       </c>
       <c r="K48" t="s">
         <v>91</v>
       </c>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="44" t="s">
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R48" s="44">
-        <v>0</v>
-      </c>
-      <c r="S48" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="10:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P49" s="43"/>
-      <c r="Q49" s="44" t="s">
+      <c r="R48" s="31">
+        <v>0</v>
+      </c>
+      <c r="S48" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U48" s="30"/>
+      <c r="V48" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="W48" s="31">
+        <v>0</v>
+      </c>
+      <c r="X48" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="10:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="30"/>
+      <c r="Q49" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="44">
+      <c r="R49" s="31">
         <v>1</v>
       </c>
-      <c r="S49" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="10:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S49" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U49" s="30"/>
+      <c r="V49" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="W49" s="31">
+        <v>0</v>
+      </c>
+      <c r="X49" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="10:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>59</v>
       </c>
       <c r="K50" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="10:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U50" s="30"/>
+      <c r="V50" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="W50" s="31">
+        <v>1</v>
+      </c>
+      <c r="X50" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
         <v>62</v>
       </c>
@@ -3587,7 +3997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="10:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
         <v>64</v>
       </c>
@@ -3595,7 +4005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="10:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" t="s">
         <v>66</v>
       </c>
@@ -3603,7 +4013,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="10:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" t="s">
         <v>68</v>
       </c>
@@ -3611,7 +4021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="10:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" t="s">
         <v>70</v>
       </c>
@@ -3619,7 +4029,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="10:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
         <v>72</v>
       </c>
@@ -3627,12 +4037,76 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="10:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" t="s">
         <v>74</v>
       </c>
       <c r="K57" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>68</v>
+      </c>
+      <c r="K63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/DCarroll Assignment 1.xlsx
+++ b/DCarroll Assignment 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00201097\Desktop\Computer-Graphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00201097\Desktop\CompGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="93">
   <si>
     <t>z = -1</t>
   </si>
@@ -214,130 +214,103 @@
     <t>[0]</t>
   </si>
   <si>
-    <t>"(1.1, 0.4, 1.3)"</t>
-  </si>
-  <si>
     <t>UnityEngine.Vector3</t>
   </si>
   <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>"(-0.8, -0.2, 1.5)"</t>
-  </si>
-  <si>
     <t>[2]</t>
   </si>
   <si>
-    <t>"(-0.5, -1.7, 0.2)"</t>
-  </si>
-  <si>
     <t>[3]</t>
   </si>
   <si>
-    <t>"(1.4, -1.0, -0.1)"</t>
-  </si>
-  <si>
     <t>[4]</t>
   </si>
   <si>
-    <t>"(0.5, 1.7, -0.2)"</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
-    <t>"(-1.4, 1.0, 0.1)"</t>
-  </si>
-  <si>
     <t>[6]</t>
   </si>
   <si>
-    <t>"(-1.1, -0.4, -1.3)"</t>
-  </si>
-  <si>
     <t>[7]</t>
   </si>
   <si>
-    <t>"(0.8, 0.2, -1.5)"</t>
-  </si>
-  <si>
-    <t>"(16.7, 1.2, 6.3)"</t>
-  </si>
-  <si>
-    <t>"(-11.5, -0.7, 7.7)"</t>
-  </si>
-  <si>
-    <t>"(-7.5, -5.0, 0.8)"</t>
-  </si>
-  <si>
-    <t>"(20.7, -3.1, -0.6)"</t>
-  </si>
-  <si>
-    <t>"(7.5, 5.0, -0.8)"</t>
-  </si>
-  <si>
-    <t>"(-20.7, 3.1, 0.6)"</t>
-  </si>
-  <si>
-    <t>"(-16.7, -1.2, -6.3)"</t>
-  </si>
-  <si>
-    <t>"(11.5, 0.7, -7.7)"</t>
-  </si>
-  <si>
-    <t>"(18.7, 5.2, 2.3)"</t>
-  </si>
-  <si>
-    <t>"(-9.5, 3.3, 3.7)"</t>
-  </si>
-  <si>
-    <t>"(-5.5, -1.0, -3.2)"</t>
-  </si>
-  <si>
-    <t>"(22.7, 0.9, -4.6)"</t>
-  </si>
-  <si>
-    <t>"(9.5, 9.0, -4.8)"</t>
-  </si>
-  <si>
-    <t>"(-18.7, 7.1, -3.4)"</t>
-  </si>
-  <si>
-    <t>"(-14.7, 2.8, -10.3)"</t>
-  </si>
-  <si>
-    <t>"(13.5, 4.7, -11.7)"</t>
-  </si>
-  <si>
-    <t>lossyScale</t>
-  </si>
-  <si>
-    <t>"(14.2, 4.5, 6.1)"</t>
-  </si>
-  <si>
-    <t>"(-275.4, -187.3, -93.6)"</t>
-  </si>
-  <si>
-    <t>"(45.2, 163.2, -197.8)"</t>
-  </si>
-  <si>
-    <t>"(110.3, 39.3, 163.4)"</t>
-  </si>
-  <si>
-    <t>"(-210.4, -311.2, 267.6)"</t>
-  </si>
-  <si>
-    <t>"(-99.3, -105.4, 281.4)"</t>
-  </si>
-  <si>
-    <t>"(221.3, 245.1, 177.2)"</t>
-  </si>
-  <si>
-    <t>"(286.4, 121.3, 538.4)"</t>
-  </si>
-  <si>
-    <t>"(-34.3, -229.2, 642.6)"</t>
+    <t>"(-415.5, -452.1, 91.8)"</t>
+  </si>
+  <si>
+    <t>"(68.3, 394.0, 196.2)"</t>
+  </si>
+  <si>
+    <t>"(166.4, 95.0, -165.7)"</t>
+  </si>
+  <si>
+    <t>"(-317.4, -751.2, -270.1)"</t>
+  </si>
+  <si>
+    <t>"(-149.8, -254.4, -284.0)"</t>
+  </si>
+  <si>
+    <t>"(334.0, 591.8, -179.5)"</t>
+  </si>
+  <si>
+    <t>"(432.1, 292.7, -541.5)"</t>
+  </si>
+  <si>
+    <t>"(-51.7, -553.4, -645.9)"</t>
+  </si>
+  <si>
+    <t>"(-33.9, -17.9, -54.8)"</t>
+  </si>
+  <si>
+    <t>"(-13.7, 1.7, -58.3)"</t>
+  </si>
+  <si>
+    <t>"(-11.8, -5.1, -52.5)"</t>
+  </si>
+  <si>
+    <t>"(-32.1, -24.6, -49.0)"</t>
+  </si>
+  <si>
+    <t>"(-28.6, -9.6, -47.5)"</t>
+  </si>
+  <si>
+    <t>"(-8.4, 10.0, -51.0)"</t>
+  </si>
+  <si>
+    <t>"(-6.5, 3.3, -45.2)"</t>
+  </si>
+  <si>
+    <t>"(-26.8, -16.3, -41.7)"</t>
+  </si>
+  <si>
+    <t>"(-51.1, -43.2, 52.9)"</t>
+  </si>
+  <si>
+    <t>"(-20.6, 4.0, 56.4)"</t>
+  </si>
+  <si>
+    <t>"(-17.9, -12.2, 50.6)"</t>
+  </si>
+  <si>
+    <t>"(-48.4, -59.4, 47.1)"</t>
+  </si>
+  <si>
+    <t>"(-43.2, -23.1, 45.6)"</t>
+  </si>
+  <si>
+    <t>"(-12.6, 24.1, 49.1)"</t>
+  </si>
+  <si>
+    <t>"(-9.9, 7.9, 43.3)"</t>
+  </si>
+  <si>
+    <t>"(-40.4, -39.4, 39.8)"</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -581,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,44 +651,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,61 +831,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>446943</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>560989</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2271347" y="8191500"/>
-          <a:ext cx="2619854" cy="703385"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>732697</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
@@ -922,7 +849,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -977,7 +904,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -993,61 +920,6 @@
         <a:xfrm>
           <a:off x="2710966" y="9209942"/>
           <a:ext cx="2043731" cy="1450731"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4213</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7612672" y="5268058"/>
-          <a:ext cx="2729829" cy="732692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1087,7 +959,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1124,25 +996,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1254920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1018442</xdr:rowOff>
+      <xdr:colOff>59180</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>687457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1156,8 +1028,63 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1846385" y="10997712"/>
-          <a:ext cx="3738747" cy="1003788"/>
+          <a:off x="1838739" y="8232913"/>
+          <a:ext cx="2560528" cy="687457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>876497</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>728870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="5284304"/>
+          <a:ext cx="2715236" cy="728870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1179,19 +1106,74 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>417639</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25929</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1018761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1838739" y="11049000"/>
+          <a:ext cx="3794516" cy="1018761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>877948</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>762004</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1519353</xdr:rowOff>
+      <xdr:colOff>523549</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="32" name="Picture 31"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1211,8 +1193,118 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2242043" y="12741519"/>
-          <a:ext cx="2850173" cy="1519353"/>
+          <a:off x="2716687" y="12821478"/>
+          <a:ext cx="2146949" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695739</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>793301</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>869674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2534478" y="14676783"/>
+          <a:ext cx="2598910" cy="869674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>778565</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342489</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2617304" y="15902609"/>
+          <a:ext cx="2065272" cy="1466022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,7 +1616,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1536,24 +1628,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1717,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1742,10 +1834,10 @@
     </row>
     <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1756,10 +1848,10 @@
     </row>
     <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -1779,10 +1871,10 @@
     </row>
     <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
@@ -1791,10 +1883,10 @@
     </row>
     <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -1814,10 +1906,10 @@
     </row>
     <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -1827,8 +1919,8 @@
     </row>
     <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -1848,10 +1940,10 @@
     </row>
     <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
       <c r="H11" s="42" t="s">
@@ -1864,12 +1956,12 @@
     </row>
     <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
@@ -1880,37 +1972,37 @@
       <c r="E13" s="14"/>
       <c r="F13" s="27"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="12"/>
       <c r="L13" s="15"/>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="12"/>
       <c r="L14" s="15"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="12"/>
       <c r="L15" s="15"/>
       <c r="M15" s="12"/>
@@ -1929,10 +2021,10 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -1944,8 +2036,8 @@
     </row>
     <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="44"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -1966,14 +2058,14 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="39" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="42" t="s">
         <v>1</v>
       </c>
@@ -1985,12 +2077,12 @@
     </row>
     <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="44"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -2008,10 +2100,10 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -2025,16 +2117,16 @@
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="44"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="13"/>
@@ -2061,8 +2153,8 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
@@ -2085,10 +2177,10 @@
       </c>
       <c r="B29" s="43"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -2099,11 +2191,11 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="44"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -2121,44 +2213,46 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="39" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="34" t="s">
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="35"/>
+      <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="37"/>
+      <c r="D33" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="41"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -2178,24 +2272,39 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="44"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -2210,27 +2319,12 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2241,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB66"/>
+  <dimension ref="A1:AC110"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59:M66"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2253,8 +2347,8 @@
     <col min="16" max="16" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="29" t="s">
         <v>27</v>
@@ -2278,34 +2372,16 @@
       <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
       <c r="T2" s="28"/>
-      <c r="U2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>40</v>
-      </c>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
       <c r="Y2" s="28"/>
-      <c r="Z2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+    </row>
+    <row r="3" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
         <v>41</v>
@@ -2332,38 +2408,16 @@
       <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="30"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+    </row>
+    <row r="4" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>43</v>
@@ -2388,40 +2442,18 @@
         <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y4" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA4" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB4" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="30"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+    </row>
+    <row r="5" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31" t="s">
         <v>44</v>
@@ -2446,40 +2478,18 @@
         <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y5" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB5" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+    </row>
+    <row r="6" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="31" t="s">
         <v>45</v>
@@ -2504,40 +2514,18 @@
         <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA6" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+    </row>
+    <row r="7" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
         <v>46</v>
@@ -2562,40 +2550,18 @@
         <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z7" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA7" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB7" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+    </row>
+    <row r="8" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
         <v>47</v>
@@ -2620,40 +2586,18 @@
         <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="V8" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA8" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB8" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+    </row>
+    <row r="9" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
         <v>48</v>
@@ -2678,40 +2622,18 @@
         <v>58</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y9" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z9" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+    </row>
+    <row r="10" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
         <v>49</v>
@@ -2736,40 +2658,18 @@
         <v>58</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="V10" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="W10" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z10" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA10" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB10" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+    </row>
+    <row r="11" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
         <v>50</v>
@@ -2791,7 +2691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="s">
         <v>51</v>
@@ -2813,7 +2713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>52</v>
@@ -2835,7 +2735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>53</v>
@@ -2857,27 +2757,19 @@
         <v>42</v>
       </c>
       <c r="P14" s="28"/>
-      <c r="Q14" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>40</v>
-      </c>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
       <c r="U14" s="28"/>
-      <c r="V14" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="X14" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+    </row>
+    <row r="15" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>54</v>
@@ -2899,29 +2791,19 @@
         <v>42</v>
       </c>
       <c r="P15" s="30"/>
-      <c r="Q15" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="R15" s="31">
-        <v>1</v>
-      </c>
-      <c r="S15" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V15" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="W15" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="X15" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+    </row>
+    <row r="16" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>55</v>
@@ -2943,29 +2825,19 @@
         <v>42</v>
       </c>
       <c r="P16" s="30"/>
-      <c r="Q16" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" s="31">
-        <v>0</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V16" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="W16" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="X16" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+    </row>
+    <row r="17" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>56</v>
@@ -2987,29 +2859,19 @@
         <v>42</v>
       </c>
       <c r="P17" s="30"/>
-      <c r="Q17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" s="31">
-        <v>0</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U17" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V17" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W17" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="X17" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+    </row>
+    <row r="18" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>57</v>
@@ -3031,1082 +2893,1900 @@
         <v>42</v>
       </c>
       <c r="P18" s="30"/>
-      <c r="Q18" s="31" t="s">
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+    </row>
+    <row r="19" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+    </row>
+    <row r="20" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+    </row>
+    <row r="21" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+    </row>
+    <row r="22" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="28"/>
+      <c r="L22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+    </row>
+    <row r="23" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+    </row>
+    <row r="24" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="31">
+        <v>-11.894439999999999</v>
+      </c>
+      <c r="D24">
+        <f>B24</f>
+        <v>-11.894439999999999</v>
+      </c>
+      <c r="E24">
+        <f>B25</f>
+        <v>-24.044509999999999</v>
+      </c>
+      <c r="F24">
+        <f>B27</f>
+        <v>15.974209999999999</v>
+      </c>
+      <c r="G24">
+        <f>B27</f>
+        <v>15.974209999999999</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+    </row>
+    <row r="25" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="31">
+        <v>-24.044509999999999</v>
+      </c>
+      <c r="D25">
+        <f>B28</f>
+        <v>-3.470602</v>
+      </c>
+      <c r="E25">
+        <f>B29</f>
+        <v>0.71416749999999996</v>
+      </c>
+      <c r="F25">
+        <f>B30</f>
+        <v>-77.559119999999993</v>
+      </c>
+      <c r="G25">
+        <f>B31</f>
+        <v>-3.8101069999999999</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+    </row>
+    <row r="26" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="31">
+        <v>483.6696</v>
+      </c>
+      <c r="D26">
+        <f>B32</f>
+        <v>-2.7820719999999999</v>
+      </c>
+      <c r="E26">
+        <f>B33</f>
+        <v>8.947419</v>
+      </c>
+      <c r="F26">
+        <f>B34</f>
+        <v>218.5558</v>
+      </c>
+      <c r="G26">
+        <f>B35</f>
+        <v>5.614509</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+    </row>
+    <row r="27" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="31">
+        <v>15.974209999999999</v>
+      </c>
+      <c r="D27">
+        <f>B36</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>B37</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>B38</f>
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <f>B39</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+    </row>
+    <row r="28" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="31">
+        <v>-3.470602</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+    </row>
+    <row r="29" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="31">
+        <v>0.71416749999999996</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+    </row>
+    <row r="30" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="31">
+        <v>-77.559119999999993</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+    </row>
+    <row r="31" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="31">
+        <v>-3.8101069999999999</v>
+      </c>
+      <c r="U31" s="30"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+    </row>
+    <row r="32" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31">
+        <v>-2.7820719999999999</v>
+      </c>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+    </row>
+    <row r="33" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="31">
+        <v>8.947419</v>
+      </c>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+    </row>
+    <row r="34" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="31">
+        <v>218.5558</v>
+      </c>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+    </row>
+    <row r="35" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="31">
+        <v>5.614509</v>
+      </c>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+    </row>
+    <row r="36" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="31">
+        <v>0</v>
+      </c>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+    </row>
+    <row r="37" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="31">
+        <v>0</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+    </row>
+    <row r="38" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="31">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="31">
+        <v>1.508883</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+    </row>
+    <row r="39" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="31">
+        <v>0</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="31">
+        <v>0</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+    </row>
+    <row r="40" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="30"/>
+      <c r="J40" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="31">
+        <v>0</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+    </row>
+    <row r="41" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="30"/>
+      <c r="J41" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R18" s="31">
+      <c r="K41" s="31">
+        <v>0</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+    </row>
+    <row r="42" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="30"/>
+      <c r="J42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="31">
+        <v>0</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+    </row>
+    <row r="43" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="30"/>
+      <c r="J43" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="31">
+        <v>2.4142130000000002</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+    </row>
+    <row r="44" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="30"/>
+      <c r="J44" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="31">
+        <v>0</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+    </row>
+    <row r="45" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="30"/>
+      <c r="J45" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" s="31">
+        <v>0</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+    </row>
+    <row r="46" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="30"/>
+      <c r="J46" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="31">
+        <v>0</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+    </row>
+    <row r="47" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="30"/>
+      <c r="J47" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="31">
+        <v>0</v>
+      </c>
+      <c r="L47" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+    </row>
+    <row r="48" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="30"/>
+      <c r="J48" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="31">
+        <v>-1.0020020000000001</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+    </row>
+    <row r="49" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="28"/>
+      <c r="C49" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="31">
+        <v>-2.0020020000000001</v>
+      </c>
+      <c r="L49" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+    </row>
+    <row r="50" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="30"/>
+      <c r="C50" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="31">
+        <v>-0.68137190000000003</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" s="31">
+        <v>0</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U50" s="30"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+    </row>
+    <row r="51" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="31">
+        <v>-0.69444969999999995</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="30"/>
+      <c r="J51" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="31">
+        <v>0</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="30"/>
+      <c r="C52" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="31">
+        <v>-0.23124</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="30"/>
+      <c r="C53" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="31">
+        <v>-17</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="30"/>
+      <c r="J53" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="31">
+        <v>0</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="30"/>
+      <c r="C54" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="31">
+        <v>-0.7293558</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="30"/>
+      <c r="C55" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="31">
+        <v>0.67070470000000004</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="30"/>
+      <c r="C56" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="31">
+        <v>0.13489000000000001</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="30"/>
+      <c r="C57" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="31">
+        <v>-8</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="30"/>
+      <c r="C58" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="31">
+        <v>6.1419439999999999E-2</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+      <c r="R58" s="28"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+    </row>
+    <row r="59" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="30"/>
+      <c r="C59" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="31">
+        <v>0.26056659999999998</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+      <c r="R59" s="30"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+    </row>
+    <row r="60" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="30"/>
+      <c r="C60" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="31">
+        <v>-0.96350029999999998</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+      <c r="R60" s="30"/>
+      <c r="S60" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T60" s="31">
+        <v>0</v>
+      </c>
+      <c r="U60" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="30"/>
+      <c r="C61" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="31">
+        <v>-55</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+      <c r="R61" s="30"/>
+      <c r="S61" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T61" s="31">
+        <v>0</v>
+      </c>
+      <c r="U61" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="30"/>
+      <c r="C62" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="31">
+        <v>0</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s">
+        <v>66</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+      <c r="R62" s="30"/>
+      <c r="S62" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="T62" s="31">
         <v>2</v>
       </c>
-      <c r="S18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U18" s="30" t="s">
+      <c r="U62" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="30"/>
+      <c r="C63" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="31">
+        <v>0</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+      <c r="R63" s="30"/>
+      <c r="S63" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="T63" s="31">
+        <v>0</v>
+      </c>
+      <c r="U63" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="30"/>
+      <c r="C64" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="31">
+        <v>0</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R64" s="30"/>
+      <c r="S64" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T64" s="31">
+        <v>1</v>
+      </c>
+      <c r="U64" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="30"/>
+      <c r="C65" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="31">
+        <v>1</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R65" s="30"/>
+      <c r="S65" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T65" s="31">
+        <v>0</v>
+      </c>
+      <c r="U65" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="30"/>
+      <c r="S66" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="T66" s="31">
+        <v>4</v>
+      </c>
+      <c r="U66" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="28"/>
+      <c r="C67" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="R67" s="30"/>
+      <c r="S67" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="T67" s="31">
+        <v>0</v>
+      </c>
+      <c r="U67" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="31" t="s">
+      <c r="C68" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R68" s="30"/>
+      <c r="S68" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="T68" s="31">
+        <v>0</v>
+      </c>
+      <c r="U68" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R69" s="30"/>
+      <c r="S69" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="T69" s="31">
+        <v>1</v>
+      </c>
+      <c r="U69" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="28"/>
+      <c r="K70" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="R70" s="30"/>
+      <c r="S70" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="T70" s="31">
+        <v>-4</v>
+      </c>
+      <c r="U70" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="L71" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R71" s="30"/>
+      <c r="S71" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="T71" s="31">
+        <v>0</v>
+      </c>
+      <c r="U71" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L72" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M72" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R72" s="30"/>
+      <c r="S72" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="T72" s="31">
+        <v>0</v>
+      </c>
+      <c r="U72" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J73" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L73" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M73" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R73" s="30"/>
+      <c r="S73" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="T73" s="31">
+        <v>0</v>
+      </c>
+      <c r="U73" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="W18" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="X18" s="31" t="s">
+      <c r="D74" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L74" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R74" s="30"/>
+      <c r="S74" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="T74" s="31">
+        <v>1</v>
+      </c>
+      <c r="U74" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J75" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L75" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M75" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L76" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M76" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L77" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M77" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R77" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="S77" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P19" s="30"/>
-      <c r="Q19" s="31" t="s">
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="L78" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R78" s="31">
+        <v>1.508883</v>
+      </c>
+      <c r="S78" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" t="s">
+        <v>78</v>
+      </c>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R79" s="31">
+        <v>0</v>
+      </c>
+      <c r="S79" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>79</v>
+      </c>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="R80" s="31">
+        <v>0</v>
+      </c>
+      <c r="S80" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s">
+        <v>59</v>
+      </c>
+      <c r="K81" t="s">
+        <v>68</v>
+      </c>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="R81" s="31">
+        <v>0</v>
+      </c>
+      <c r="S81" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="J82" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" t="s">
+        <v>69</v>
+      </c>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="31">
-        <v>0</v>
-      </c>
-      <c r="S19" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V19" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="W19" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="X19" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31" t="s">
+      <c r="R82" s="31">
+        <v>0</v>
+      </c>
+      <c r="S82" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s">
+        <v>62</v>
+      </c>
+      <c r="K83" t="s">
+        <v>70</v>
+      </c>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="R20" s="31">
-        <v>1</v>
-      </c>
-      <c r="S20" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V20" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="W20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="X20" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31" t="s">
+      <c r="R83" s="31">
+        <v>2.4142130000000002</v>
+      </c>
+      <c r="S83" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" t="s">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s">
+        <v>63</v>
+      </c>
+      <c r="K84" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="31">
-        <v>0</v>
-      </c>
-      <c r="S21" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V21" s="31" t="s">
+      <c r="R84" s="31">
+        <v>0</v>
+      </c>
+      <c r="S84" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85" t="s">
         <v>72</v>
       </c>
-      <c r="W21" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="X21" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31" t="s">
+      <c r="P85" s="30"/>
+      <c r="Q85" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="31">
-        <v>4</v>
-      </c>
-      <c r="S22" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V22" s="31" t="s">
+      <c r="R85" s="31">
+        <v>0</v>
+      </c>
+      <c r="S85" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>65</v>
+      </c>
+      <c r="K86" t="s">
+        <v>73</v>
+      </c>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="R86" s="31">
+        <v>0</v>
+      </c>
+      <c r="S86" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>66</v>
+      </c>
+      <c r="K87" t="s">
         <v>74</v>
       </c>
-      <c r="W22" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="X22" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31" t="s">
+      <c r="P87" s="30"/>
+      <c r="Q87" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="R87" s="31">
+        <v>0</v>
+      </c>
+      <c r="S87" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="R88" s="31">
+        <v>-1.0020020000000001</v>
+      </c>
+      <c r="S88" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P89" s="30"/>
+      <c r="Q89" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="R89" s="31">
+        <v>-2.0020020000000001</v>
+      </c>
+      <c r="S89" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P90" s="30"/>
+      <c r="Q90" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R90" s="31">
+        <v>0</v>
+      </c>
+      <c r="S90" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P91" s="30"/>
+      <c r="Q91" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R91" s="31">
+        <v>0</v>
+      </c>
+      <c r="S91" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P92" s="30"/>
+      <c r="Q92" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R92" s="31">
+        <v>-1</v>
+      </c>
+      <c r="S92" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P93" s="30"/>
+      <c r="Q93" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="R93" s="31">
+        <v>0</v>
+      </c>
+      <c r="S93" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="28"/>
+      <c r="I94" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="30"/>
+      <c r="I95" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" s="31">
+        <v>-11.894439999999999</v>
+      </c>
+      <c r="K95" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="30"/>
+      <c r="I96" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J96" s="31">
+        <v>-24.044509999999999</v>
+      </c>
+      <c r="K96" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="30"/>
+      <c r="I97" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J97" s="31">
+        <v>483.6696</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="30"/>
+      <c r="I98" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98" s="31">
+        <v>15.974209999999999</v>
+      </c>
+      <c r="K98" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="30"/>
+      <c r="I99" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J99" s="31">
+        <v>-3.470602</v>
+      </c>
+      <c r="K99" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="30"/>
+      <c r="I100" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J100" s="31">
+        <v>0.71416749999999996</v>
+      </c>
+      <c r="K100" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="30"/>
+      <c r="I101" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J101" s="31">
+        <v>-77.559119999999993</v>
+      </c>
+      <c r="K101" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="30"/>
+      <c r="I102" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J102" s="31">
+        <v>-3.8101069999999999</v>
+      </c>
+      <c r="K102" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="30"/>
+      <c r="I103" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="31">
-        <v>0</v>
-      </c>
-      <c r="S23" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>-11.583320000000001</v>
-      </c>
-      <c r="C24">
-        <f>B28</f>
-        <v>-12.399050000000001</v>
-      </c>
-      <c r="D24">
-        <f>B32</f>
-        <v>1.0441309999999999</v>
-      </c>
-      <c r="E24">
-        <f>B36</f>
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31" t="s">
+      <c r="J103" s="31">
+        <v>-2.7820719999999999</v>
+      </c>
+      <c r="K103" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="30"/>
+      <c r="I104" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="R24" s="31">
-        <v>0</v>
-      </c>
-      <c r="S24" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="W24" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="X24" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>-5.5555969999999997</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:C27" si="0">B29</f>
-        <v>5.3656370000000004</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25:D27" si="1">B33</f>
-        <v>2.0845319999999998</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25:E27" si="2">B37</f>
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="31" t="s">
+      <c r="J104" s="31">
+        <v>8.947419</v>
+      </c>
+      <c r="K104" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="30"/>
+      <c r="I105" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R25" s="31">
-        <v>1</v>
-      </c>
-      <c r="S25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U25" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V25" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="W25" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="X25" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>-12.7182</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>7.4189530000000001</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>-52.992519999999999</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" t="s">
-        <v>67</v>
-      </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31" t="s">
+      <c r="J105" s="31">
+        <v>218.5558</v>
+      </c>
+      <c r="K105" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="30"/>
+      <c r="I106" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="31">
-        <v>-4</v>
-      </c>
-      <c r="S26" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U26" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="W26" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="X26" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="31" t="s">
+      <c r="J106" s="31">
+        <v>5.614509</v>
+      </c>
+      <c r="K106" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="30"/>
+      <c r="I107" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="R27" s="31">
-        <v>0</v>
-      </c>
-      <c r="S27" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W27" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="X27" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>-12.399050000000001</v>
-      </c>
-      <c r="J28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31" t="s">
+      <c r="J107" s="31">
+        <v>0</v>
+      </c>
+      <c r="K107" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="30"/>
+      <c r="I108" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="31">
-        <v>0</v>
-      </c>
-      <c r="S28" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U28" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V28" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="W28" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="X28" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>5.3656370000000004</v>
-      </c>
-      <c r="J29" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31" t="s">
+      <c r="J108" s="31">
+        <v>0</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="30"/>
+      <c r="I109" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="31">
-        <v>0</v>
-      </c>
-      <c r="S29" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U29" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V29" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="W29" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="X29" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>7.4189530000000001</v>
-      </c>
-      <c r="J30" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31" t="s">
+      <c r="J109" s="31">
+        <v>-1</v>
+      </c>
+      <c r="K109" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="30"/>
+      <c r="I110" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="31">
-        <v>1</v>
-      </c>
-      <c r="S30" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U30" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V30" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="W30" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="X30" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="U31" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V31" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="W31" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="X31" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1.0441309999999999</v>
-      </c>
-      <c r="J32" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" t="s">
-        <v>76</v>
-      </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R32" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="S32" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V32" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="W32" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>2.0845319999999998</v>
-      </c>
-      <c r="J33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" t="s">
-        <v>77</v>
-      </c>
-      <c r="P33" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q33" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="R33" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="S33" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>-52.992519999999999</v>
-      </c>
-      <c r="J34" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="R34" s="31">
-        <v>14.132720000000001</v>
-      </c>
-      <c r="S34" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U34" s="28"/>
-      <c r="V34" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="W34" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="X34" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" t="s">
-        <v>79</v>
-      </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="R35" s="31">
-        <v>-2.0067560000000002</v>
-      </c>
-      <c r="S35" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U35" s="30"/>
-      <c r="V35" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="W35" s="31">
-        <v>-11.583320000000001</v>
-      </c>
-      <c r="X35" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>68</v>
-      </c>
-      <c r="K36" t="s">
-        <v>80</v>
-      </c>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="31">
-        <v>4.6085880000000001</v>
-      </c>
-      <c r="S36" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U36" s="30"/>
-      <c r="V36" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="W36" s="31">
-        <v>-5.5555969999999997</v>
-      </c>
-      <c r="X36" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>70</v>
-      </c>
-      <c r="K37" t="s">
-        <v>81</v>
-      </c>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="R37" s="31">
-        <v>2</v>
-      </c>
-      <c r="S37" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U37" s="30"/>
-      <c r="V37" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="W37" s="31">
-        <v>-12.7182</v>
-      </c>
-      <c r="X37" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="R38" s="31">
-        <v>0.92171749999999997</v>
-      </c>
-      <c r="S38" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U38" s="30"/>
-      <c r="V38" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="W38" s="31">
-        <v>0</v>
-      </c>
-      <c r="X38" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39" t="s">
-        <v>83</v>
-      </c>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R39" s="31">
-        <v>2.1327229999999999</v>
-      </c>
-      <c r="S39" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U39" s="30"/>
-      <c r="V39" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="W39" s="31">
-        <v>-12.399050000000001</v>
-      </c>
-      <c r="X39" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P40" s="30"/>
-      <c r="Q40" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="R40" s="31">
-        <v>-1.897875</v>
-      </c>
-      <c r="S40" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40" s="30"/>
-      <c r="V40" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W40" s="31">
-        <v>5.3656370000000004</v>
-      </c>
-      <c r="X40" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" t="s">
-        <v>84</v>
-      </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="R41" s="31">
-        <v>4</v>
-      </c>
-      <c r="S41" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U41" s="30"/>
-      <c r="V41" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W41" s="31">
-        <v>7.4189530000000001</v>
-      </c>
-      <c r="X41" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J42" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" t="s">
-        <v>85</v>
-      </c>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="R42" s="31">
-        <v>-0.66891860000000003</v>
-      </c>
-      <c r="S42" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U42" s="30"/>
-      <c r="V42" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="W42" s="31">
-        <v>0</v>
-      </c>
-      <c r="X42" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J43" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" t="s">
-        <v>86</v>
-      </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="R43" s="31">
-        <v>3.4522179999999998</v>
-      </c>
-      <c r="S43" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U43" s="30"/>
-      <c r="V43" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="W43" s="31">
-        <v>1.0441309999999999</v>
-      </c>
-      <c r="X43" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J44" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" t="s">
-        <v>87</v>
-      </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="R44" s="31">
-        <v>3.554538</v>
-      </c>
-      <c r="S44" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U44" s="30"/>
-      <c r="V44" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="W44" s="31">
-        <v>2.0845319999999998</v>
-      </c>
-      <c r="X44" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J45" t="s">
-        <v>68</v>
-      </c>
-      <c r="K45" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="R45" s="31">
-        <v>-4</v>
-      </c>
-      <c r="S45" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U45" s="30"/>
-      <c r="V45" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="W45" s="31">
-        <v>-52.992519999999999</v>
-      </c>
-      <c r="X45" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J46" t="s">
-        <v>70</v>
-      </c>
-      <c r="K46" t="s">
-        <v>89</v>
-      </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="R46" s="31">
-        <v>0</v>
-      </c>
-      <c r="S46" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U46" s="30"/>
-      <c r="V46" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="W46" s="31">
-        <v>0</v>
-      </c>
-      <c r="X46" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J47" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" t="s">
-        <v>90</v>
-      </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="R47" s="31">
-        <v>0</v>
-      </c>
-      <c r="S47" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U47" s="30"/>
-      <c r="V47" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="W47" s="31">
-        <v>0</v>
-      </c>
-      <c r="X47" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" t="s">
-        <v>91</v>
-      </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="R48" s="31">
-        <v>0</v>
-      </c>
-      <c r="S48" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U48" s="30"/>
-      <c r="V48" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="W48" s="31">
-        <v>0</v>
-      </c>
-      <c r="X48" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="10:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P49" s="30"/>
-      <c r="Q49" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="R49" s="31">
-        <v>1</v>
-      </c>
-      <c r="S49" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U49" s="30"/>
-      <c r="V49" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="W49" s="31">
-        <v>0</v>
-      </c>
-      <c r="X49" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="10:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J50" t="s">
-        <v>59</v>
-      </c>
-      <c r="K50" t="s">
-        <v>84</v>
-      </c>
-      <c r="U50" s="30"/>
-      <c r="V50" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="W50" s="31">
-        <v>1</v>
-      </c>
-      <c r="X50" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J51" t="s">
-        <v>62</v>
-      </c>
-      <c r="K51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J52" t="s">
-        <v>64</v>
-      </c>
-      <c r="K52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J53" t="s">
-        <v>66</v>
-      </c>
-      <c r="K53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J54" t="s">
-        <v>68</v>
-      </c>
-      <c r="K54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J55" t="s">
-        <v>70</v>
-      </c>
-      <c r="K55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J56" t="s">
-        <v>72</v>
-      </c>
-      <c r="K56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J57" t="s">
-        <v>74</v>
-      </c>
-      <c r="K57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J59" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J60" t="s">
-        <v>62</v>
-      </c>
-      <c r="K60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J61" t="s">
-        <v>64</v>
-      </c>
-      <c r="K61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J62" t="s">
-        <v>66</v>
-      </c>
-      <c r="K62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J63" t="s">
-        <v>68</v>
-      </c>
-      <c r="K63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="10:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J64" t="s">
-        <v>70</v>
-      </c>
-      <c r="K64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J65" t="s">
-        <v>72</v>
-      </c>
-      <c r="K65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="10:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J66" t="s">
-        <v>74</v>
-      </c>
-      <c r="K66" t="s">
-        <v>101</v>
+      <c r="J110" s="31">
+        <v>0</v>
+      </c>
+      <c r="K110" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DCarroll Assignment 1.xlsx
+++ b/DCarroll Assignment 1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="97">
   <si>
     <t>z = -1</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>use -z</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -554,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,17 +672,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,7 +690,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,17 +714,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,6 +756,3606 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$U$107:$U$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.61861313868613144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23499142367066894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65510204081632661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60210526315789481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14380530973451328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64268585131894485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$V$107:$V$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.32664233576642338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9159519725557463E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7142857142857142E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50204081632653064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.19607843137254902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.3008849557522112E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39088729016786572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B60A-405E-A31A-1F470204D939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227354000"/>
+        <c:axId val="227366064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227354000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227366064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227366064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227354000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Hand</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Projection</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$AD$83:$AD$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.96597353497164462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36524822695035464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35375494071146241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0276008492569002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94736842105263164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25661914460285129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22863741339491919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0150753768844221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AE$83:$AE$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.81663516068052933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0921985815602842E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2411067193675889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2611464968152866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50657894736842102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.49083503054989819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.18244803695150116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98994974874371866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2385-415C-B465-D18B472DC94D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227355664"/>
+        <c:axId val="227356080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227355664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227356080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227356080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227355664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Hand</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Projection</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$AD$83:$AD$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.96597353497164462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36524822695035464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35375494071146241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0276008492569002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94736842105263164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25661914460285129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22863741339491919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0150753768844221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AE$83:$AE$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.81663516068052933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0921985815602842E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2411067193675889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2611464968152866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50657894736842102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.49083503054989819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.18244803695150116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98994974874371866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27DF-45D0-B04E-1EC3706BC520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227355664"/>
+        <c:axId val="227356080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227355664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227356080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227356080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227355664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$U$107:$U$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.61861313868613144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23499142367066894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65510204081632661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60210526315789481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14380530973451328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64268585131894485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$V$107:$V$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.32664233576642338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9159519725557463E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7142857142857142E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50204081632653064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.19607843137254902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.3008849557522112E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39088729016786572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48BF-4B1E-8F1B-4753CFE08570}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227354000"/>
+        <c:axId val="227366064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227354000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227366064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227366064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227354000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1323,6 +4965,410 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>889599</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1010478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11214652" y="11049000"/>
+          <a:ext cx="3763664" cy="1010478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>861393</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41415</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1466365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12076045" y="15902609"/>
+          <a:ext cx="2054087" cy="1458082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1283806</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5168349" y="18089218"/>
+          <a:ext cx="1225826" cy="1275521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1402317</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="960783" y="14685067"/>
+          <a:ext cx="1054447" cy="1258956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>338057</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74541</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>124237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1176130</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>354008</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11486030" y="14870205"/>
+          <a:ext cx="2146949" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>60512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1628,24 +5674,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1807,15 +5853,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -1848,10 +5896,10 @@
     </row>
     <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -1883,10 +5931,10 @@
     </row>
     <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -1919,8 +5967,8 @@
     </row>
     <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -1946,22 +5994,22 @@
       <c r="E11" s="40"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
@@ -1996,8 +6044,8 @@
     </row>
     <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
       <c r="H15" s="34"/>
@@ -2036,8 +6084,8 @@
     </row>
     <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -2065,11 +6113,11 @@
       <c r="F20" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="42" t="s">
+      <c r="G20" s="46"/>
+      <c r="H20" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="43"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
@@ -2077,12 +6125,12 @@
     </row>
     <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -2110,55 +6158,55 @@
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="48"/>
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="32"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="49"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="J25" s="15"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,10 +6220,10 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="25"/>
       <c r="D29" s="39" t="s">
         <v>16</v>
@@ -2190,12 +6238,12 @@
       <c r="L29" s="15"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
+    <row r="30" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -2227,32 +6275,32 @@
       <c r="F32" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
       <c r="L32" s="39" t="s">
         <v>12</v>
       </c>
       <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="41"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="49"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -2264,47 +6312,125 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C36" s="5"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="12"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="26"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="26"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="41"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+    </row>
+    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+    </row>
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+    </row>
+    <row r="49" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+    </row>
+    <row r="50" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+    </row>
+    <row r="51" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+    </row>
+    <row r="52" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+    </row>
+    <row r="53" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+    </row>
+    <row r="54" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+    </row>
+    <row r="55" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+    </row>
+    <row r="56" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+    </row>
+    <row r="57" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+    </row>
+    <row r="58" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+    </row>
+    <row r="59" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
+    </row>
+    <row r="60" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="50"/>
+      <c r="E60" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -2319,12 +6445,27 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2335,10 +6476,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC110"/>
+  <dimension ref="A1:AE114"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:G27"/>
+    <sheetView topLeftCell="G79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U106" sqref="U106:V114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2765,9 +6906,15 @@
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
       <c r="Z14" s="28"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
+      <c r="AA14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14" s="29" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
@@ -2799,9 +6946,15 @@
       <c r="W15" s="31"/>
       <c r="X15" s="31"/>
       <c r="Z15" s="30"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
+      <c r="AA15" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="31">
+        <v>-15.26243</v>
+      </c>
+      <c r="AC15" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
@@ -2833,9 +6986,15 @@
       <c r="W16" s="31"/>
       <c r="X16" s="31"/>
       <c r="Z16" s="30"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
+      <c r="AA16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" s="31">
+        <v>-1.3761209999999999</v>
+      </c>
+      <c r="AC16" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
@@ -2867,9 +7026,15 @@
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Z17" s="30"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
+      <c r="AA17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>-3.9896910000000001</v>
+      </c>
+      <c r="AC17" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
@@ -2901,9 +7066,15 @@
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
       <c r="Z18" s="30"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
+      <c r="AA18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="31">
+        <v>-30.502949999999998</v>
+      </c>
+      <c r="AC18" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P19" s="30"/>
@@ -2915,9 +7086,15 @@
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
       <c r="Z19" s="30"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
+      <c r="AA19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB19" s="31">
+        <v>-23.61056</v>
+      </c>
+      <c r="AC19" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P20" s="30"/>
@@ -2929,9 +7106,15 @@
       <c r="W20" s="31"/>
       <c r="X20" s="31"/>
       <c r="Z20" s="30"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
+      <c r="AA20" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB20" s="31">
+        <v>8.1111199999999997</v>
+      </c>
+      <c r="AC20" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P21" s="30"/>
@@ -2943,9 +7126,15 @@
       <c r="W21" s="31"/>
       <c r="X21" s="31"/>
       <c r="Z21" s="30"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
+      <c r="AA21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB21" s="31">
+        <v>-10.030430000000001</v>
+      </c>
+      <c r="AC21" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K22" s="28"/>
@@ -2967,9 +7156,15 @@
       <c r="W22" s="31"/>
       <c r="X22" s="31"/>
       <c r="Z22" s="30"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
+      <c r="AA22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="31">
+        <v>-17.661069999999999</v>
+      </c>
+      <c r="AC22" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K23" s="30" t="s">
@@ -2989,29 +7184,35 @@
       <c r="R23" s="31"/>
       <c r="S23" s="31"/>
       <c r="Z23" s="30"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
+      <c r="AA23" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB23" s="31">
+        <v>-1.756205</v>
+      </c>
+      <c r="AC23" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31">
-        <v>-11.894439999999999</v>
+        <v>-15.26243</v>
       </c>
       <c r="D24">
         <f>B24</f>
-        <v>-11.894439999999999</v>
+        <v>-15.26243</v>
       </c>
       <c r="E24">
         <f>B25</f>
-        <v>-24.044509999999999</v>
+        <v>-1.3761209999999999</v>
       </c>
       <c r="F24">
         <f>B27</f>
-        <v>15.974209999999999</v>
+        <v>-30.502949999999998</v>
       </c>
       <c r="G24">
         <f>B27</f>
-        <v>15.974209999999999</v>
+        <v>-30.502949999999998</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>58</v>
@@ -3034,29 +7235,35 @@
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
       <c r="Z24" s="30"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
+      <c r="AA24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24" s="31">
+        <v>2.8995440000000001</v>
+      </c>
+      <c r="AC24" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31">
-        <v>-24.044509999999999</v>
+        <v>-1.3761209999999999</v>
       </c>
       <c r="D25">
         <f>B28</f>
-        <v>-3.470602</v>
+        <v>-23.61056</v>
       </c>
       <c r="E25">
         <f>B29</f>
-        <v>0.71416749999999996</v>
+        <v>8.1111199999999997</v>
       </c>
       <c r="F25">
         <f>B30</f>
-        <v>-77.559119999999993</v>
+        <v>-10.030430000000001</v>
       </c>
       <c r="G25">
         <f>B31</f>
-        <v>-3.8101069999999999</v>
+        <v>-17.661069999999999</v>
       </c>
       <c r="K25" s="30" t="s">
         <v>58</v>
@@ -3079,29 +7286,35 @@
       <c r="W25" s="31"/>
       <c r="X25" s="31"/>
       <c r="Z25" s="30"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
+      <c r="AA25" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB25" s="31">
+        <v>3.6435439999999999</v>
+      </c>
+      <c r="AC25" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31">
-        <v>483.6696</v>
+        <v>-3.9896910000000001</v>
       </c>
       <c r="D26">
         <f>B32</f>
-        <v>-2.7820719999999999</v>
+        <v>-1.756205</v>
       </c>
       <c r="E26">
         <f>B33</f>
-        <v>8.947419</v>
+        <v>2.8995440000000001</v>
       </c>
       <c r="F26">
         <f>B34</f>
-        <v>218.5558</v>
+        <v>3.6435439999999999</v>
       </c>
       <c r="G26">
         <f>B35</f>
-        <v>5.614509</v>
+        <v>48.078949999999999</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>58</v>
@@ -3124,29 +7337,35 @@
       <c r="W26" s="31"/>
       <c r="X26" s="31"/>
       <c r="Z26" s="30"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
+      <c r="AA26" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB26" s="31">
+        <v>48.078949999999999</v>
+      </c>
+      <c r="AC26" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31">
-        <v>15.974209999999999</v>
+        <v>-30.502949999999998</v>
       </c>
       <c r="D27">
         <f>B36</f>
-        <v>0</v>
+        <v>-1.752696</v>
       </c>
       <c r="E27">
         <f>B37</f>
-        <v>0</v>
+        <v>2.893751</v>
       </c>
       <c r="F27">
         <f>B38</f>
-        <v>-1</v>
+        <v>3.6362640000000002</v>
       </c>
       <c r="G27">
         <f>B39</f>
-        <v>0</v>
+        <v>49.980890000000002</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>58</v>
@@ -3169,13 +7388,19 @@
       <c r="W27" s="31"/>
       <c r="X27" s="31"/>
       <c r="Z27" s="30"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
+      <c r="AA27" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB27" s="31">
+        <v>-1.752696</v>
+      </c>
+      <c r="AC27" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31">
-        <v>-3.470602</v>
+        <v>-23.61056</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>58</v>
@@ -3198,13 +7423,19 @@
       <c r="W28" s="31"/>
       <c r="X28" s="31"/>
       <c r="Z28" s="30"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
+      <c r="AA28" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB28" s="31">
+        <v>2.893751</v>
+      </c>
+      <c r="AC28" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31">
-        <v>0.71416749999999996</v>
+        <v>8.1111199999999997</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>58</v>
@@ -3227,13 +7458,19 @@
       <c r="W29" s="31"/>
       <c r="X29" s="31"/>
       <c r="Z29" s="30"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
+      <c r="AA29" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB29" s="31">
+        <v>3.6362640000000002</v>
+      </c>
+      <c r="AC29" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="31">
-        <v>-77.559119999999993</v>
+        <v>-10.030430000000001</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>58</v>
@@ -3256,13 +7493,19 @@
       <c r="W30" s="31"/>
       <c r="X30" s="31"/>
       <c r="Z30" s="30"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
+      <c r="AA30" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB30" s="31">
+        <v>49.980890000000002</v>
+      </c>
+      <c r="AC30" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31">
-        <v>-3.8101069999999999</v>
+        <v>-17.661069999999999</v>
       </c>
       <c r="U31" s="30"/>
       <c r="V31" s="31"/>
@@ -3271,7 +7514,7 @@
     </row>
     <row r="32" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31">
-        <v>-2.7820719999999999</v>
+        <v>-1.756205</v>
       </c>
       <c r="P32" s="28"/>
       <c r="Q32" s="29"/>
@@ -3282,18 +7525,28 @@
       <c r="W32" s="31"/>
       <c r="X32" s="31"/>
     </row>
-    <row r="33" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31">
-        <v>8.947419</v>
+        <v>2.8995440000000001</v>
       </c>
       <c r="P33" s="30"/>
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
-    </row>
-    <row r="34" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC33" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD33" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
-        <v>218.5558</v>
+        <v>3.6435439999999999</v>
       </c>
       <c r="P34" s="30"/>
       <c r="Q34" s="31"/>
@@ -3303,10 +7556,22 @@
       <c r="V34" s="29"/>
       <c r="W34" s="29"/>
       <c r="X34" s="29"/>
-    </row>
-    <row r="35" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA34" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB34" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC34" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD34" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="31">
-        <v>5.614509</v>
+        <v>48.078949999999999</v>
       </c>
       <c r="P35" s="30"/>
       <c r="Q35" s="31"/>
@@ -3316,10 +7581,22 @@
       <c r="V35" s="31"/>
       <c r="W35" s="31"/>
       <c r="X35" s="31"/>
-    </row>
-    <row r="36" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB35" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC35" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD35" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="31">
-        <v>0</v>
+        <v>-1.752696</v>
       </c>
       <c r="P36" s="30"/>
       <c r="Q36" s="31"/>
@@ -3329,10 +7606,22 @@
       <c r="V36" s="31"/>
       <c r="W36" s="31"/>
       <c r="X36" s="31"/>
-    </row>
-    <row r="37" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA36" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB36" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC36" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD36" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31">
-        <v>0</v>
+        <v>2.893751</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="29" t="s">
@@ -3352,10 +7641,22 @@
       <c r="V37" s="31"/>
       <c r="W37" s="31"/>
       <c r="X37" s="31"/>
-    </row>
-    <row r="38" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA37" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB37" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC37" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD37" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="31">
-        <v>-1</v>
+        <v>3.6362640000000002</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="31" t="s">
@@ -3375,10 +7676,22 @@
       <c r="V38" s="31"/>
       <c r="W38" s="31"/>
       <c r="X38" s="31"/>
-    </row>
-    <row r="39" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA38" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB38" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC38" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD38" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="31">
-        <v>0</v>
+        <v>49.980890000000002</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="31" t="s">
@@ -3398,8 +7711,20 @@
       <c r="V39" s="31"/>
       <c r="W39" s="31"/>
       <c r="X39" s="31"/>
-    </row>
-    <row r="40" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB39" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC39" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD39" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I40" s="30"/>
       <c r="J40" s="31" t="s">
         <v>44</v>
@@ -3418,8 +7743,20 @@
       <c r="V40" s="31"/>
       <c r="W40" s="31"/>
       <c r="X40" s="31"/>
-    </row>
-    <row r="41" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA40" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB40" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC40" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD40" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I41" s="30"/>
       <c r="J41" s="31" t="s">
         <v>45</v>
@@ -3438,8 +7775,20 @@
       <c r="V41" s="31"/>
       <c r="W41" s="31"/>
       <c r="X41" s="31"/>
-    </row>
-    <row r="42" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA41" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB41" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC41" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD41" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I42" s="30"/>
       <c r="J42" s="31" t="s">
         <v>46</v>
@@ -3459,7 +7808,7 @@
       <c r="W42" s="31"/>
       <c r="X42" s="31"/>
     </row>
-    <row r="43" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I43" s="30"/>
       <c r="J43" s="31" t="s">
         <v>47</v>
@@ -3479,7 +7828,7 @@
       <c r="W43" s="31"/>
       <c r="X43" s="31"/>
     </row>
-    <row r="44" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I44" s="30"/>
       <c r="J44" s="31" t="s">
         <v>48</v>
@@ -3498,8 +7847,14 @@
       <c r="V44" s="31"/>
       <c r="W44" s="31"/>
       <c r="X44" s="31"/>
-    </row>
-    <row r="45" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I45" s="30"/>
       <c r="J45" s="31" t="s">
         <v>49</v>
@@ -3518,8 +7873,14 @@
       <c r="V45" s="31"/>
       <c r="W45" s="31"/>
       <c r="X45" s="31"/>
-    </row>
-    <row r="46" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA45" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I46" s="30"/>
       <c r="J46" s="31" t="s">
         <v>50</v>
@@ -3538,8 +7899,14 @@
       <c r="V46" s="31"/>
       <c r="W46" s="31"/>
       <c r="X46" s="31"/>
-    </row>
-    <row r="47" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I47" s="30"/>
       <c r="J47" s="31" t="s">
         <v>51</v>
@@ -3558,8 +7925,14 @@
       <c r="V47" s="31"/>
       <c r="W47" s="31"/>
       <c r="X47" s="31"/>
-    </row>
-    <row r="48" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I48" s="30"/>
       <c r="J48" s="31" t="s">
         <v>52</v>
@@ -3578,8 +7951,14 @@
       <c r="V48" s="31"/>
       <c r="W48" s="31"/>
       <c r="X48" s="31"/>
-    </row>
-    <row r="49" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="29" t="s">
         <v>27</v>
@@ -3608,8 +7987,14 @@
       <c r="V49" s="31"/>
       <c r="W49" s="31"/>
       <c r="X49" s="31"/>
-    </row>
-    <row r="50" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="30"/>
       <c r="C50" s="31" t="s">
         <v>41</v>
@@ -3634,8 +8019,14 @@
       <c r="V50" s="31"/>
       <c r="W50" s="31"/>
       <c r="X50" s="31"/>
-    </row>
-    <row r="51" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
       <c r="C51" s="31" t="s">
         <v>43</v>
@@ -3656,8 +8047,14 @@
       <c r="L51" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
       <c r="C52" s="31" t="s">
         <v>44</v>
@@ -3679,7 +8076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
       <c r="C53" s="31" t="s">
         <v>45</v>
@@ -3701,7 +8098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="30"/>
       <c r="C54" s="31" t="s">
         <v>46</v>
@@ -3712,8 +8109,17 @@
       <c r="E54" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <v>-51.1</v>
+      </c>
+      <c r="AA54">
+        <v>-43.2</v>
+      </c>
+      <c r="AB54">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
       <c r="C55" s="31" t="s">
         <v>47</v>
@@ -3724,8 +8130,17 @@
       <c r="E55" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z55">
+        <v>-20.6</v>
+      </c>
+      <c r="AA55">
+        <v>4</v>
+      </c>
+      <c r="AB55">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
       <c r="C56" s="31" t="s">
         <v>48</v>
@@ -3742,8 +8157,17 @@
       <c r="J56" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z56">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>-12.2</v>
+      </c>
+      <c r="AB56">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
       <c r="C57" s="31" t="s">
         <v>49</v>
@@ -3760,8 +8184,17 @@
       <c r="J57" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z57">
+        <v>-48.4</v>
+      </c>
+      <c r="AA57">
+        <v>-59.4</v>
+      </c>
+      <c r="AB57">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
       <c r="C58" s="31" t="s">
         <v>50</v>
@@ -3782,8 +8215,17 @@
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
       <c r="U58" s="29"/>
-    </row>
-    <row r="59" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z58">
+        <v>-43.2</v>
+      </c>
+      <c r="AA58">
+        <v>-23.1</v>
+      </c>
+      <c r="AB58">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="30"/>
       <c r="C59" s="31" t="s">
         <v>51</v>
@@ -3804,8 +8246,17 @@
       <c r="S59" s="31"/>
       <c r="T59" s="31"/>
       <c r="U59" s="31"/>
-    </row>
-    <row r="60" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z59">
+        <v>-12.6</v>
+      </c>
+      <c r="AA59">
+        <v>24.1</v>
+      </c>
+      <c r="AB59">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
       <c r="C60" s="31" t="s">
         <v>52</v>
@@ -3832,8 +8283,17 @@
       <c r="U60" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="61" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z60">
+        <v>-9.9</v>
+      </c>
+      <c r="AA60">
+        <v>7.9</v>
+      </c>
+      <c r="AB60">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="30"/>
       <c r="C61" s="31" t="s">
         <v>53</v>
@@ -3860,8 +8320,17 @@
       <c r="U61" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z61">
+        <v>-40.4</v>
+      </c>
+      <c r="AA61">
+        <v>-39.4</v>
+      </c>
+      <c r="AB61">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="30"/>
       <c r="C62" s="31" t="s">
         <v>54</v>
@@ -3889,7 +8358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="30"/>
       <c r="C63" s="31" t="s">
         <v>55</v>
@@ -3917,7 +8386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="2:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="30"/>
       <c r="C64" s="31" t="s">
         <v>56</v>
@@ -4357,7 +8826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>64</v>
       </c>
@@ -4381,7 +8850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>65</v>
       </c>
@@ -4404,8 +8873,23 @@
       <c r="S82" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>66</v>
       </c>
@@ -4428,8 +8912,25 @@
       <c r="S83" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z83">
+        <v>-51.1</v>
+      </c>
+      <c r="AA83">
+        <v>-43.2</v>
+      </c>
+      <c r="AB83">
+        <v>52.9</v>
+      </c>
+      <c r="AD83">
+        <f>Z83 / -AB83</f>
+        <v>0.96597353497164462</v>
+      </c>
+      <c r="AE83">
+        <f>AA83/-AB83</f>
+        <v>0.81663516068052933</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>67</v>
       </c>
@@ -4452,8 +8953,25 @@
       <c r="S84" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z84">
+        <v>-20.6</v>
+      </c>
+      <c r="AA84">
+        <v>4</v>
+      </c>
+      <c r="AB84">
+        <v>56.4</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" ref="AD84:AD90" si="0">Z84 / -AB84</f>
+        <v>0.36524822695035464</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" ref="AE84:AE90" si="1">AA84/-AB84</f>
+        <v>-7.0921985815602842E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J85" t="s">
         <v>64</v>
       </c>
@@ -4470,8 +8988,25 @@
       <c r="S85" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z85">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AA85">
+        <v>-12.2</v>
+      </c>
+      <c r="AB85">
+        <v>50.6</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="0"/>
+        <v>0.35375494071146241</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="1"/>
+        <v>0.2411067193675889</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J86" t="s">
         <v>65</v>
       </c>
@@ -4488,8 +9023,25 @@
       <c r="S86" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z86">
+        <v>-48.4</v>
+      </c>
+      <c r="AA86">
+        <v>-59.4</v>
+      </c>
+      <c r="AB86">
+        <v>47.1</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="0"/>
+        <v>1.0276008492569002</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="1"/>
+        <v>1.2611464968152866</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J87" t="s">
         <v>66</v>
       </c>
@@ -4506,8 +9058,25 @@
       <c r="S87" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z87">
+        <v>-43.2</v>
+      </c>
+      <c r="AA87">
+        <v>-23.1</v>
+      </c>
+      <c r="AB87">
+        <v>45.6</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="0"/>
+        <v>0.94736842105263164</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="1"/>
+        <v>0.50657894736842102</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
         <v>67</v>
       </c>
@@ -4524,8 +9093,25 @@
       <c r="S88" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z88">
+        <v>-12.6</v>
+      </c>
+      <c r="AA88">
+        <v>24.1</v>
+      </c>
+      <c r="AB88">
+        <v>49.1</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="0"/>
+        <v>0.25661914460285129</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="1"/>
+        <v>-0.49083503054989819</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P89" s="30"/>
       <c r="Q89" s="31" t="s">
         <v>53</v>
@@ -4536,8 +9122,25 @@
       <c r="S89" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z89">
+        <v>-9.9</v>
+      </c>
+      <c r="AA89">
+        <v>7.9</v>
+      </c>
+      <c r="AB89">
+        <v>43.3</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="0"/>
+        <v>0.22863741339491919</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="1"/>
+        <v>-0.18244803695150116</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P90" s="30"/>
       <c r="Q90" s="31" t="s">
         <v>54</v>
@@ -4548,8 +9151,25 @@
       <c r="S90" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="91" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z90">
+        <v>-40.4</v>
+      </c>
+      <c r="AA90">
+        <v>-39.4</v>
+      </c>
+      <c r="AB90">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="0"/>
+        <v>1.0150753768844221</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="1"/>
+        <v>0.98994974874371866</v>
+      </c>
+    </row>
+    <row r="91" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P91" s="30"/>
       <c r="Q91" s="31" t="s">
         <v>55</v>
@@ -4561,7 +9181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P92" s="30"/>
       <c r="Q92" s="31" t="s">
         <v>56</v>
@@ -4573,7 +9193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P93" s="30"/>
       <c r="Q93" s="31" t="s">
         <v>57</v>
@@ -4585,7 +9205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H94" s="28"/>
       <c r="I94" s="29" t="s">
         <v>27</v>
@@ -4597,7 +9217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H95" s="30"/>
       <c r="I95" s="31" t="s">
         <v>41</v>
@@ -4609,7 +9229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="3:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H96" s="30"/>
       <c r="I96" s="31" t="s">
         <v>43</v>
@@ -4621,7 +9241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H97" s="30"/>
       <c r="I97" s="31" t="s">
         <v>44</v>
@@ -4633,7 +9253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H98" s="30"/>
       <c r="I98" s="31" t="s">
         <v>45</v>
@@ -4645,7 +9265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H99" s="30"/>
       <c r="I99" s="31" t="s">
         <v>46</v>
@@ -4657,7 +9277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H100" s="30"/>
       <c r="I100" s="31" t="s">
         <v>47</v>
@@ -4669,7 +9289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H101" s="30"/>
       <c r="I101" s="31" t="s">
         <v>48</v>
@@ -4681,7 +9301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H102" s="30"/>
       <c r="I102" s="31" t="s">
         <v>49</v>
@@ -4693,7 +9313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H103" s="30"/>
       <c r="I103" s="31" t="s">
         <v>50</v>
@@ -4705,7 +9325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H104" s="30"/>
       <c r="I104" s="31" t="s">
         <v>51</v>
@@ -4717,7 +9337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H105" s="30"/>
       <c r="I105" s="31" t="s">
         <v>52</v>
@@ -4729,7 +9349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H106" s="30"/>
       <c r="I106" s="31" t="s">
         <v>53</v>
@@ -4740,8 +9360,23 @@
       <c r="K106" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="107" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q106" t="s">
+        <v>94</v>
+      </c>
+      <c r="R106" t="s">
+        <v>95</v>
+      </c>
+      <c r="S106" t="s">
+        <v>96</v>
+      </c>
+      <c r="U106" t="s">
+        <v>94</v>
+      </c>
+      <c r="V106" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H107" s="30"/>
       <c r="I107" s="31" t="s">
         <v>54</v>
@@ -4752,8 +9387,25 @@
       <c r="K107" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="108" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>-33.9</v>
+      </c>
+      <c r="R107">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="S107">
+        <v>-54.8</v>
+      </c>
+      <c r="U107">
+        <f>Q107/S107</f>
+        <v>0.61861313868613144</v>
+      </c>
+      <c r="V107">
+        <f>R107/S107</f>
+        <v>0.32664233576642338</v>
+      </c>
+    </row>
+    <row r="108" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H108" s="30"/>
       <c r="I108" s="31" t="s">
         <v>55</v>
@@ -4764,8 +9416,25 @@
       <c r="K108" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="109" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>-13.7</v>
+      </c>
+      <c r="R108">
+        <v>1.7</v>
+      </c>
+      <c r="S108">
+        <v>-58.3</v>
+      </c>
+      <c r="U108">
+        <f t="shared" ref="U108:U114" si="2">Q108/S108</f>
+        <v>0.23499142367066894</v>
+      </c>
+      <c r="V108">
+        <f t="shared" ref="V108:V114" si="3">R108/S108</f>
+        <v>-2.9159519725557463E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H109" s="30"/>
       <c r="I109" s="31" t="s">
         <v>56</v>
@@ -4776,8 +9445,25 @@
       <c r="K109" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="110" spans="8:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>-11.8</v>
+      </c>
+      <c r="R109">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="S109">
+        <v>-52.5</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="2"/>
+        <v>0.22476190476190477</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="3"/>
+        <v>9.7142857142857142E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H110" s="30"/>
       <c r="I110" s="31" t="s">
         <v>57</v>
@@ -4787,11 +9473,105 @@
       </c>
       <c r="K110" s="31" t="s">
         <v>42</v>
+      </c>
+      <c r="Q110">
+        <v>-32.1</v>
+      </c>
+      <c r="R110">
+        <v>-24.6</v>
+      </c>
+      <c r="S110">
+        <v>-49</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="2"/>
+        <v>0.65510204081632661</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="3"/>
+        <v>0.50204081632653064</v>
+      </c>
+    </row>
+    <row r="111" spans="8:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q111">
+        <v>-28.6</v>
+      </c>
+      <c r="R111">
+        <v>-9.6</v>
+      </c>
+      <c r="S111">
+        <v>-47.5</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="2"/>
+        <v>0.60210526315789481</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="3"/>
+        <v>0.20210526315789473</v>
+      </c>
+    </row>
+    <row r="112" spans="8:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q112">
+        <v>-8.4</v>
+      </c>
+      <c r="R112">
+        <v>10</v>
+      </c>
+      <c r="S112">
+        <v>-51</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="2"/>
+        <v>0.16470588235294117</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="3"/>
+        <v>-0.19607843137254902</v>
+      </c>
+    </row>
+    <row r="113" spans="17:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q113">
+        <v>-6.5</v>
+      </c>
+      <c r="R113">
+        <v>3.3</v>
+      </c>
+      <c r="S113">
+        <v>-45.2</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="2"/>
+        <v>0.14380530973451328</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="3"/>
+        <v>-7.3008849557522112E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="17:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q114">
+        <v>-26.8</v>
+      </c>
+      <c r="R114">
+        <v>-16.3</v>
+      </c>
+      <c r="S114">
+        <v>-41.7</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="2"/>
+        <v>0.64268585131894485</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="3"/>
+        <v>0.39088729016786572</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DCarroll Assignment 1.xlsx
+++ b/DCarroll Assignment 1.xlsx
@@ -678,45 +678,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -735,11 +696,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,335 +759,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$U$107:$U$114</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.61861313868613144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23499142367066894</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22476190476190477</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65510204081632661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.60210526315789481</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16470588235294117</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14380530973451328</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64268585131894485</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$V$107:$V$114</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.32664233576642338</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.9159519725557463E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7142857142857142E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50204081632653064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20210526315789473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.19607843137254902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7.3008849557522112E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39088729016786572</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B60A-405E-A31A-1F470204D939}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="227354000"/>
-        <c:axId val="227366064"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="227354000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227366064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="227366064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227354000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1233,28 +904,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.81663516068052933</c:v>
+                  <c:v>-0.81663516068052933</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.0921985815602842E-2</c:v>
+                  <c:v>7.0921985815602842E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2411067193675889</c:v>
+                  <c:v>-0.2411067193675889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2611464968152866</c:v>
+                  <c:v>-1.2611464968152866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50657894736842102</c:v>
+                  <c:v>-0.50657894736842102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.49083503054989819</c:v>
+                  <c:v>0.49083503054989819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.18244803695150116</c:v>
+                  <c:v>0.18244803695150116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98994974874371866</c:v>
+                  <c:v>-0.98994974874371866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +933,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2385-415C-B465-D18B472DC94D}"/>
+              <c16:uniqueId val="{00000000-836B-4B79-8BC7-8070AC6BE198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1398,6 +1069,360 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="227355664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Final Image</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$U$107:$U$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.61861313868613144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23499142367066894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65510204081632661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60210526315789481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14380530973451328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64268585131894485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$V$107:$V$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.32664233576642338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9159519725557463E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.7142857142857142E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.50204081632653064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19607843137254902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3008849557522112E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.39088729016786572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E94-43DF-96E8-C46FA964FD79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227354000"/>
+        <c:axId val="227366064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227354000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227366064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227366064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227354000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1592,28 +1617,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.81663516068052933</c:v>
+                  <c:v>-0.81663516068052933</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.0921985815602842E-2</c:v>
+                  <c:v>7.0921985815602842E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2411067193675889</c:v>
+                  <c:v>-0.2411067193675889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2611464968152866</c:v>
+                  <c:v>-1.2611464968152866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50657894736842102</c:v>
+                  <c:v>-0.50657894736842102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.49083503054989819</c:v>
+                  <c:v>0.49083503054989819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.18244803695150116</c:v>
+                  <c:v>0.18244803695150116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98994974874371866</c:v>
+                  <c:v>-0.98994974874371866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,6 +1845,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Final Image</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1921,28 +1971,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.32664233576642338</c:v>
+                  <c:v>-0.32664233576642338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9159519725557463E-2</c:v>
+                  <c:v>2.9159519725557463E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7142857142857142E-2</c:v>
+                  <c:v>-9.7142857142857142E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50204081632653064</c:v>
+                  <c:v>-0.50204081632653064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20210526315789473</c:v>
+                  <c:v>-0.20210526315789473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.19607843137254902</c:v>
+                  <c:v>0.19607843137254902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.3008849557522112E-2</c:v>
+                  <c:v>7.3008849557522112E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39088729016786572</c:v>
+                  <c:v>-0.39088729016786572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5078,19 +5128,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1283806</xdr:colOff>
+      <xdr:colOff>1399762</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:rowOff>41414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>100858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="20" name="Picture 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5110,8 +5160,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5168349" y="18089218"/>
-          <a:ext cx="1225826" cy="1275521"/>
+          <a:off x="5284305" y="18122349"/>
+          <a:ext cx="1167848" cy="1417792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5133,19 +5183,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>347870</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>8284</xdr:rowOff>
+      <xdr:colOff>579782</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1402317</xdr:colOff>
+      <xdr:colOff>1811820</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="22" name="Picture 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5165,8 +5215,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="960783" y="14685067"/>
-          <a:ext cx="1054447" cy="1258956"/>
+          <a:off x="1192695" y="14668501"/>
+          <a:ext cx="1232038" cy="1275522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5187,20 +5237,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>612913</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>338057</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>54665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvPr id="23" name="Chart 22"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5219,20 +5269,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>74541</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>124237</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1176130</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvPr id="25" name="Chart 24"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5674,24 +5724,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -5855,8 +5905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5882,10 +5932,10 @@
     </row>
     <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -5896,10 +5946,10 @@
     </row>
     <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -5919,10 +5969,10 @@
     </row>
     <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
@@ -5931,10 +5981,10 @@
     </row>
     <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -5954,10 +6004,10 @@
     </row>
     <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -5967,8 +6017,8 @@
     </row>
     <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -5988,28 +6038,28 @@
     </row>
     <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="49"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
@@ -6029,10 +6079,10 @@
     </row>
     <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
       <c r="H14" s="34"/>
@@ -6044,8 +6094,8 @@
     </row>
     <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="49"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
       <c r="H15" s="34"/>
@@ -6069,10 +6119,10 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -6084,8 +6134,8 @@
     </row>
     <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="49"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -6106,18 +6156,18 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="44" t="s">
+      <c r="E20" s="48"/>
+      <c r="F20" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="48"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
@@ -6125,12 +6175,12 @@
     </row>
     <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="49"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -6148,33 +6198,33 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="47" t="s">
+      <c r="L23" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="48"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="49"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="32"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="49"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="13"/>
@@ -6187,10 +6237,10 @@
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
@@ -6201,8 +6251,8 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
@@ -6220,15 +6270,15 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -6239,11 +6289,11 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -6261,46 +6311,46 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="44" t="s">
+      <c r="E32" s="48"/>
+      <c r="F32" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="39" t="s">
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="40"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -6312,125 +6362,140 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="48"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C36" s="52"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="52"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="53"/>
-      <c r="E38" s="55"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="42"/>
       <c r="F38" s="26"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="42"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
     </row>
     <row r="49" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="53"/>
-      <c r="E49" s="54"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
     </row>
     <row r="50" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
     </row>
     <row r="51" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="53"/>
-      <c r="E51" s="54"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="53"/>
-      <c r="E52" s="54"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
     </row>
     <row r="54" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
     </row>
     <row r="55" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="41"/>
     </row>
     <row r="56" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="53"/>
-      <c r="E56" s="54"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
     </row>
     <row r="57" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="41"/>
     </row>
     <row r="58" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
     </row>
     <row r="59" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="53"/>
-      <c r="E59" s="54"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
     </row>
     <row r="60" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="50"/>
-      <c r="E60" s="51"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -6445,27 +6510,12 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6479,7 +6529,7 @@
   <dimension ref="A1:AE114"/>
   <sheetViews>
     <sheetView topLeftCell="G79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U106" sqref="U106:V114"/>
+      <selection activeCell="AF107" sqref="AF107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8926,8 +8976,8 @@
         <v>0.96597353497164462</v>
       </c>
       <c r="AE83">
-        <f>AA83/-AB83</f>
-        <v>0.81663516068052933</v>
+        <f>AA83/AB83</f>
+        <v>-0.81663516068052933</v>
       </c>
     </row>
     <row r="84" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8967,8 +9017,8 @@
         <v>0.36524822695035464</v>
       </c>
       <c r="AE84">
-        <f t="shared" ref="AE84:AE90" si="1">AA84/-AB84</f>
-        <v>-7.0921985815602842E-2</v>
+        <f t="shared" ref="AE84:AE90" si="1">AA84/AB84</f>
+        <v>7.0921985815602842E-2</v>
       </c>
     </row>
     <row r="85" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9003,7 +9053,7 @@
       </c>
       <c r="AE85">
         <f t="shared" si="1"/>
-        <v>0.2411067193675889</v>
+        <v>-0.2411067193675889</v>
       </c>
     </row>
     <row r="86" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9038,7 +9088,7 @@
       </c>
       <c r="AE86">
         <f t="shared" si="1"/>
-        <v>1.2611464968152866</v>
+        <v>-1.2611464968152866</v>
       </c>
     </row>
     <row r="87" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9073,7 +9123,7 @@
       </c>
       <c r="AE87">
         <f t="shared" si="1"/>
-        <v>0.50657894736842102</v>
+        <v>-0.50657894736842102</v>
       </c>
     </row>
     <row r="88" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9108,7 +9158,7 @@
       </c>
       <c r="AE88">
         <f t="shared" si="1"/>
-        <v>-0.49083503054989819</v>
+        <v>0.49083503054989819</v>
       </c>
     </row>
     <row r="89" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9137,7 +9187,7 @@
       </c>
       <c r="AE89">
         <f t="shared" si="1"/>
-        <v>-0.18244803695150116</v>
+        <v>0.18244803695150116</v>
       </c>
     </row>
     <row r="90" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9166,7 +9216,7 @@
       </c>
       <c r="AE90">
         <f t="shared" si="1"/>
-        <v>0.98994974874371866</v>
+        <v>-0.98994974874371866</v>
       </c>
     </row>
     <row r="91" spans="3:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9401,8 +9451,8 @@
         <v>0.61861313868613144</v>
       </c>
       <c r="V107">
-        <f>R107/S107</f>
-        <v>0.32664233576642338</v>
+        <f>R107/-S107</f>
+        <v>-0.32664233576642338</v>
       </c>
     </row>
     <row r="108" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9430,8 +9480,8 @@
         <v>0.23499142367066894</v>
       </c>
       <c r="V108">
-        <f t="shared" ref="V108:V114" si="3">R108/S108</f>
-        <v>-2.9159519725557463E-2</v>
+        <f t="shared" ref="V108:V114" si="3">R108/-S108</f>
+        <v>2.9159519725557463E-2</v>
       </c>
     </row>
     <row r="109" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9460,7 +9510,7 @@
       </c>
       <c r="V109">
         <f t="shared" si="3"/>
-        <v>9.7142857142857142E-2</v>
+        <v>-9.7142857142857142E-2</v>
       </c>
     </row>
     <row r="110" spans="8:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9489,7 +9539,7 @@
       </c>
       <c r="V110">
         <f t="shared" si="3"/>
-        <v>0.50204081632653064</v>
+        <v>-0.50204081632653064</v>
       </c>
     </row>
     <row r="111" spans="8:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9508,7 +9558,7 @@
       </c>
       <c r="V111">
         <f t="shared" si="3"/>
-        <v>0.20210526315789473</v>
+        <v>-0.20210526315789473</v>
       </c>
     </row>
     <row r="112" spans="8:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9527,7 +9577,7 @@
       </c>
       <c r="V112">
         <f t="shared" si="3"/>
-        <v>-0.19607843137254902</v>
+        <v>0.19607843137254902</v>
       </c>
     </row>
     <row r="113" spans="17:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9546,7 +9596,7 @@
       </c>
       <c r="V113">
         <f t="shared" si="3"/>
-        <v>-7.3008849557522112E-2</v>
+        <v>7.3008849557522112E-2</v>
       </c>
     </row>
     <row r="114" spans="17:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9565,7 +9615,7 @@
       </c>
       <c r="V114">
         <f t="shared" si="3"/>
-        <v>0.39088729016786572</v>
+        <v>-0.39088729016786572</v>
       </c>
     </row>
   </sheetData>
